--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_116__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_116__Reeval_Halton_Modell_1.3.xlsx
@@ -5996,13 +5996,13 @@
                   <c:v>67.39573669433594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.22815704345703</c:v>
+                  <c:v>76.2281494140625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35.97765350341797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.22843933105469</c:v>
+                  <c:v>44.22843170166016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58.10346984863281</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>76.11336517333984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.81616973876953</c:v>
+                  <c:v>72.81617736816406</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>78.73551177978516</c:v>
@@ -6059,16 +6059,16 @@
                   <c:v>70.51357269287109</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.28000640869141</c:v>
+                  <c:v>90.28001403808594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63.28225708007812</c:v>
+                  <c:v>63.28224945068359</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>41.5921745300293</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.15011596679688</c:v>
+                  <c:v>85.15013122558594</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>56.51494598388672</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>77.72001647949219</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>70.67213439941406</c:v>
+                  <c:v>70.67212677001953</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>76.04864501953125</c:v>
@@ -6116,13 +6116,13 @@
                   <c:v>57.86756896972656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>82.76602935791016</c:v>
+                  <c:v>82.76601409912109</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>67.14684295654297</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.49470138549805</c:v>
+                  <c:v>43.49470520019531</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43.84027862548828</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>75.76932525634766</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.12061309814453</c:v>
+                  <c:v>35.12060928344727</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>79.1602783203125</c:v>
@@ -6143,10 +6143,10 @@
                   <c:v>78.20401763916016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.47264099121094</c:v>
+                  <c:v>49.47264862060547</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>91.65557098388672</c:v>
+                  <c:v>91.65557861328125</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>31.47671127319336</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>63.62873077392578</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>91.71305847167969</c:v>
+                  <c:v>91.71307373046875</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>69.53752136230469</c:v>
@@ -6176,7 +6176,7 @@
                   <c:v>96.86206817626953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>57.26803588867188</c:v>
+                  <c:v>57.26804351806641</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>75.57536315917969</c:v>
@@ -6188,13 +6188,13 @@
                   <c:v>47.20452117919922</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>57.76823425292969</c:v>
+                  <c:v>57.76822662353516</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>76.30678558349609</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>80.10279083251953</c:v>
+                  <c:v>80.102783203125</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>38.92035675048828</c:v>
@@ -6215,7 +6215,7 @@
                   <c:v>68.61083984375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.69164276123047</c:v>
+                  <c:v>85.69163513183594</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>41.39739608764648</c:v>
@@ -6224,13 +6224,13 @@
                   <c:v>78.26708221435547</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>71.60765075683594</c:v>
+                  <c:v>71.60765838623047</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>58.88426208496094</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>14.73147583007812</c:v>
+                  <c:v>14.73147296905518</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>73.01339721679688</c:v>
@@ -6266,7 +6266,7 @@
                   <c:v>46.96934509277344</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>87.35816955566406</c:v>
+                  <c:v>87.35817718505859</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>56.32276916503906</c:v>
@@ -7075,7 +7075,7 @@
         <v>74.8476</v>
       </c>
       <c r="F5">
-        <v>76.22815704345703</v>
+        <v>76.2281494140625</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7139,7 +7139,7 @@
         <v>50.1844</v>
       </c>
       <c r="F7">
-        <v>44.22843933105469</v>
+        <v>44.22843170166016</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7451,7 +7451,7 @@
         <v>75.0883</v>
       </c>
       <c r="F22">
-        <v>72.81616973876953</v>
+        <v>72.81617736816406</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>90.28000640869141</v>
+        <v>90.28001403808594</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>68.3349</v>
       </c>
       <c r="F27">
-        <v>63.28225708007812</v>
+        <v>63.28224945068359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>85.15011596679688</v>
+        <v>85.15013122558594</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>74.5831</v>
       </c>
       <c r="F34">
-        <v>70.67213439941406</v>
+        <v>70.67212677001953</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>84.85599999999999</v>
       </c>
       <c r="F45">
-        <v>82.76602935791016</v>
+        <v>82.76601409912109</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>30.2573</v>
       </c>
       <c r="F47">
-        <v>43.49470138549805</v>
+        <v>43.49470520019531</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>32.7716</v>
       </c>
       <c r="F51">
-        <v>35.12061309814453</v>
+        <v>35.12060928344727</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>42.721</v>
       </c>
       <c r="F54">
-        <v>49.47264099121094</v>
+        <v>49.47264862060547</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>87.46469999999999</v>
       </c>
       <c r="F55">
-        <v>91.65557098388672</v>
+        <v>91.65557861328125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>96.3043</v>
       </c>
       <c r="F61">
-        <v>91.71305847167969</v>
+        <v>91.71307373046875</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>44.5242</v>
       </c>
       <c r="F65">
-        <v>57.26803588867188</v>
+        <v>57.26804351806641</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>45.9424</v>
       </c>
       <c r="F69">
-        <v>57.76823425292969</v>
+        <v>57.76822662353516</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>80.3858</v>
       </c>
       <c r="F71">
-        <v>80.10279083251953</v>
+        <v>80.102783203125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>95.4156</v>
       </c>
       <c r="F78">
-        <v>85.69164276123047</v>
+        <v>85.69163513183594</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>80.995</v>
       </c>
       <c r="F81">
-        <v>71.60765075683594</v>
+        <v>71.60765838623047</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>11.5216</v>
       </c>
       <c r="F83">
-        <v>14.73147583007812</v>
+        <v>14.73147296905518</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>88.58159999999999</v>
       </c>
       <c r="F95">
-        <v>87.35816955566406</v>
+        <v>87.35817718505859</v>
       </c>
     </row>
     <row r="96" spans="1:6">
